--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1432256.283056879</v>
+        <v>1426860.028239672</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9438528.73170981</v>
+        <v>9438528.731709804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5826594.85434051</v>
+        <v>5826594.854340512</v>
       </c>
     </row>
     <row r="11">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>341.7602787893052</v>
       </c>
-      <c r="C11" t="n">
-        <v>307.2917835980473</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>298.3722087065644</v>
+        <v>133.8044932071637</v>
       </c>
       <c r="I11" t="n">
         <v>52.36689279964237</v>
@@ -1423,7 +1423,7 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T11" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>50.29505140022294</v>
       </c>
       <c r="C12" t="n">
-        <v>26.96647592867597</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H12" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>8.475159690333349</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U12" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79.39919906122857</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>78.40949199263524</v>
       </c>
       <c r="S13" t="n">
-        <v>21.77715851939644</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>63.25092958142113</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>304.0969911434084</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>134.8700437713627</v>
       </c>
       <c r="C15" t="n">
-        <v>40.06853737311332</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U15" t="n">
         <v>207.8852796172697</v>
@@ -1748,7 +1748,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.8616582514644</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.056423183776545</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H16" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>301.0224535576199</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>341.7602787893052</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>340.4707003995434</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.475159690333349</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T18" t="n">
-        <v>80.99254975406539</v>
+        <v>170.4822098874773</v>
       </c>
       <c r="U18" t="n">
         <v>207.8852796172697</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>173.8355159483499</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>70.40321415795852</v>
       </c>
       <c r="D19" t="n">
-        <v>82.23164279072149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>183.6362815515982</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>341.7602787893052</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T20" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>229.5594560895469</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.43593266224609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>43.98859434891378</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>117.6852892315554</v>
@@ -2219,7 +2219,7 @@
         <v>207.8852796172697</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.3120530221885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2259,7 +2259,7 @@
         <v>145.1734758482728</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>78.40949199263524</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>39.60820500330683</v>
       </c>
       <c r="T22" t="n">
-        <v>124.5970454555123</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>349.9373556578109</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I23" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U23" t="n">
         <v>253.0196767335278</v>
@@ -2380,13 +2380,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>226.4647019193766</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>170.4822098874773</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8852796172697</v>
+        <v>207.8852796172699</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2462,7 +2462,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734888</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>119.9341684482263</v>
+        <v>132.2314748166181</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>78.40949199263524</v>
       </c>
       <c r="S25" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>258.1335148359504</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H26" t="n">
-        <v>233.5264629167491</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2645,7 +2645,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556999</v>
       </c>
       <c r="G27" t="n">
         <v>117.6852892315554</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>24.19103984778656</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2733,7 +2733,7 @@
         <v>145.1734758482728</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.40949199263524</v>
       </c>
       <c r="S28" t="n">
-        <v>180.5354644014542</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>128.3397471165613</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T29" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0196767335278</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>273.3226560325539</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.7761258521115</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T30" t="n">
         <v>170.4822098874773</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.5873294507275</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I31" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T31" t="n">
         <v>229.1567118763024</v>
@@ -3009,16 +3009,16 @@
         <v>282.530721081746</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>81.22717745388017</v>
+        <v>162.3283074575166</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>372.119087438384</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>406.8370587541321</v>
@@ -3049,7 +3049,7 @@
         <v>298.3722087065644</v>
       </c>
       <c r="I32" t="n">
-        <v>52.36689279964237</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>327.697523349421</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>117.6852892315554</v>
       </c>
       <c r="H33" t="n">
-        <v>76.07674487096723</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I33" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T33" t="n">
-        <v>170.4822098874773</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U33" t="n">
         <v>207.8852796172697</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0542575833813</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>183.6362815515982</v>
@@ -3243,13 +3243,13 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U34" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>94.20843812955218</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="C35" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="D35" t="n">
-        <v>301.0224535576199</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>229.5594560895472</v>
       </c>
       <c r="Y35" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>47.14871816618388</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3413,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>28.16140441088133</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5873294507275</v>
+        <v>27.89315961098963</v>
       </c>
       <c r="H37" t="n">
         <v>145.1734758482728</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U37" t="n">
-        <v>91.38358135205247</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T38" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>232.6339936753359</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.2706063149494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -3593,16 +3593,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U39" t="n">
-        <v>39.74676879207293</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>82.83938200871822</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5873294507275</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>235.4276030354881</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>177.0198604082264</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>189.245923592595</v>
       </c>
       <c r="F41" t="n">
-        <v>301.0224535576199</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="X41" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="Y41" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>126.3948840810302</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.4822098874773</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U42" t="n">
-        <v>130.8515959183902</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -3915,7 +3915,7 @@
         <v>165.5873294507275</v>
       </c>
       <c r="H43" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>151.0330062406222</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>83.91630388264956</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>109.7135372499512</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>186.1713860068062</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>341.7602787893052</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H45" t="n">
-        <v>76.0106496623784</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>89.98651692043497</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>100.7094687073461</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U46" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.70981522043462</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>692.0184840246133</v>
+        <v>905.8175329954845</v>
       </c>
       <c r="C11" t="n">
-        <v>381.6227430164846</v>
+        <v>560.6051301780044</v>
       </c>
       <c r="D11" t="n">
-        <v>381.6227430164846</v>
+        <v>560.6051301780044</v>
       </c>
       <c r="E11" t="n">
-        <v>381.6227430164846</v>
+        <v>560.6051301780044</v>
       </c>
       <c r="F11" t="n">
-        <v>381.6227430164846</v>
+        <v>215.3927273605244</v>
       </c>
       <c r="G11" t="n">
-        <v>381.6227430164846</v>
+        <v>215.3927273605244</v>
       </c>
       <c r="H11" t="n">
         <v>80.2366736159145</v>
       </c>
       <c r="I11" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J11" t="n">
-        <v>95.19447492671543</v>
+        <v>95.19447492671532</v>
       </c>
       <c r="K11" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244279</v>
       </c>
       <c r="L11" t="n">
-        <v>420.9320297462636</v>
+        <v>420.9320297462637</v>
       </c>
       <c r="M11" t="n">
-        <v>654.1109890220051</v>
+        <v>654.1109890220052</v>
       </c>
       <c r="N11" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861662</v>
       </c>
       <c r="O11" t="n">
-        <v>1111.973021646432</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P11" t="n">
         <v>1275.529383879705</v>
@@ -5068,25 +5068,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S11" t="n">
-        <v>1251.029935812964</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T11" t="n">
-        <v>1037.230886842093</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U11" t="n">
-        <v>1037.230886842093</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="V11" t="n">
-        <v>1037.230886842093</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="W11" t="n">
-        <v>1037.230886842093</v>
+        <v>905.8175329954845</v>
       </c>
       <c r="X11" t="n">
-        <v>1037.230886842093</v>
+        <v>905.8175329954845</v>
       </c>
       <c r="Y11" t="n">
-        <v>1037.230886842093</v>
+        <v>905.8175329954845</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.5211093485302</v>
+        <v>409.296392689329</v>
       </c>
       <c r="C12" t="n">
-        <v>379.28224477411</v>
+        <v>409.296392689329</v>
       </c>
       <c r="D12" t="n">
-        <v>249.1932773955904</v>
+        <v>279.2074253108094</v>
       </c>
       <c r="E12" t="n">
-        <v>112.7467865064781</v>
+        <v>279.2074253108094</v>
       </c>
       <c r="F12" t="n">
-        <v>112.7467865064781</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7467865064781</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H12" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I12" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J12" t="n">
-        <v>55.52239243964172</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K12" t="n">
-        <v>154.4898205685661</v>
+        <v>349.2248155482935</v>
       </c>
       <c r="L12" t="n">
-        <v>317.6733927779655</v>
+        <v>512.4083877576929</v>
       </c>
       <c r="M12" t="n">
-        <v>520.6828889864546</v>
+        <v>715.417883966182</v>
       </c>
       <c r="N12" t="n">
-        <v>738.431061681209</v>
+        <v>933.1660566609364</v>
       </c>
       <c r="O12" t="n">
-        <v>923.1852322592225</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P12" t="n">
-        <v>1261.527908260635</v>
+        <v>1253.635244285075</v>
       </c>
       <c r="Q12" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R12" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S12" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T12" t="n">
-        <v>1367.041115157221</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U12" t="n">
-        <v>1157.055984230686</v>
+        <v>871.9465541906977</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.055984230686</v>
+        <v>649.4065525617648</v>
       </c>
       <c r="W12" t="n">
-        <v>926.9387383639726</v>
+        <v>649.4065525617648</v>
       </c>
       <c r="X12" t="n">
-        <v>737.6316607139843</v>
+        <v>460.0994749117764</v>
       </c>
       <c r="Y12" t="n">
-        <v>558.3174437894916</v>
+        <v>460.0994749117764</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>297.7991215189861</v>
+        <v>533.6334457894295</v>
       </c>
       <c r="C13" t="n">
-        <v>297.7991215189861</v>
+        <v>453.4322346164714</v>
       </c>
       <c r="D13" t="n">
         <v>297.7991215189861</v>
@@ -5196,28 +5196,28 @@
         <v>130.5391927808774</v>
       </c>
       <c r="I13" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314442</v>
       </c>
       <c r="J13" t="n">
         <v>66.45306417582705</v>
       </c>
       <c r="K13" t="n">
-        <v>96.63386596576143</v>
+        <v>261.4889387084428</v>
       </c>
       <c r="L13" t="n">
-        <v>405.6195989377153</v>
+        <v>570.4746716803967</v>
       </c>
       <c r="M13" t="n">
-        <v>705.1127069970614</v>
+        <v>908.8173476818089</v>
       </c>
       <c r="N13" t="n">
-        <v>1037.403250965976</v>
+        <v>1204.194742108213</v>
       </c>
       <c r="O13" t="n">
-        <v>1337.82684101674</v>
+        <v>1252.816782623508</v>
       </c>
       <c r="P13" t="n">
-        <v>1367.041115157221</v>
+        <v>1282.031056763989</v>
       </c>
       <c r="Q13" t="n">
         <v>1367.041115157221</v>
@@ -5226,25 +5226,25 @@
         <v>1287.839608093953</v>
       </c>
       <c r="S13" t="n">
-        <v>1265.842478276381</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="T13" t="n">
-        <v>1034.371052138702</v>
+        <v>1102.34841460749</v>
       </c>
       <c r="U13" t="n">
-        <v>748.9864853894632</v>
+        <v>816.9638478582518</v>
       </c>
       <c r="V13" t="n">
-        <v>483.0071402102874</v>
+        <v>816.9638478582518</v>
       </c>
       <c r="W13" t="n">
-        <v>483.0071402102874</v>
+        <v>533.6334457894295</v>
       </c>
       <c r="X13" t="n">
-        <v>483.0071402102874</v>
+        <v>533.6334457894295</v>
       </c>
       <c r="Y13" t="n">
-        <v>483.0071402102874</v>
+        <v>533.6334457894295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.34082230314441</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="C14" t="n">
-        <v>27.34082230314441</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="D14" t="n">
-        <v>27.34082230314441</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="E14" t="n">
-        <v>27.34082230314441</v>
+        <v>717.7656279381044</v>
       </c>
       <c r="F14" t="n">
-        <v>27.34082230314441</v>
+        <v>372.5532251206244</v>
       </c>
       <c r="G14" t="n">
         <v>27.34082230314441</v>
@@ -5278,16 +5278,16 @@
         <v>27.34082230314441</v>
       </c>
       <c r="J14" t="n">
-        <v>95.19447492671543</v>
+        <v>95.1944749267152</v>
       </c>
       <c r="K14" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244278</v>
       </c>
       <c r="L14" t="n">
-        <v>420.9320297462637</v>
+        <v>420.9320297462636</v>
       </c>
       <c r="M14" t="n">
-        <v>654.1109890220052</v>
+        <v>654.1109890220051</v>
       </c>
       <c r="N14" t="n">
         <v>894.062003086166</v>
@@ -5305,25 +5305,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S14" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="T14" t="n">
-        <v>1367.041115157221</v>
+        <v>1037.230886842093</v>
       </c>
       <c r="U14" t="n">
-        <v>1367.041115157221</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="V14" t="n">
-        <v>1024.934305860739</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="W14" t="n">
-        <v>717.7656279381044</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="X14" t="n">
-        <v>372.5532251206244</v>
+        <v>781.6554557981258</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.34082230314441</v>
+        <v>781.6554557981258</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>414.0983535863104</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="C15" t="n">
-        <v>373.6250835124586</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="D15" t="n">
-        <v>373.6250835124586</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="E15" t="n">
-        <v>237.1785926233463</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="F15" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H15" t="n">
-        <v>35.90158966711749</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I15" t="n">
         <v>27.34082230314441</v>
       </c>
       <c r="J15" t="n">
-        <v>102.7611821987025</v>
+        <v>55.52239243964172</v>
       </c>
       <c r="K15" t="n">
-        <v>201.7286103276269</v>
+        <v>154.4898205685661</v>
       </c>
       <c r="L15" t="n">
-        <v>364.9121825370263</v>
+        <v>317.6733927779655</v>
       </c>
       <c r="M15" t="n">
-        <v>567.9216787455154</v>
+        <v>568.2441244722581</v>
       </c>
       <c r="N15" t="n">
-        <v>785.6698514402698</v>
+        <v>785.9922971670126</v>
       </c>
       <c r="O15" t="n">
-        <v>970.4240220182833</v>
+        <v>1124.334973168425</v>
       </c>
       <c r="P15" t="n">
-        <v>1308.766698019695</v>
+        <v>1260.049990214549</v>
       </c>
       <c r="Q15" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R15" t="n">
         <v>1367.041115157221</v>
@@ -5387,22 +5387,22 @@
         <v>1367.041115157221</v>
       </c>
       <c r="T15" t="n">
-        <v>1367.041115157221</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U15" t="n">
-        <v>1157.055984230686</v>
+        <v>984.8517318190925</v>
       </c>
       <c r="V15" t="n">
-        <v>934.5159826017527</v>
+        <v>762.3117301901596</v>
       </c>
       <c r="W15" t="n">
-        <v>934.5159826017527</v>
+        <v>532.1944843234464</v>
       </c>
       <c r="X15" t="n">
-        <v>745.2089049517645</v>
+        <v>342.8874066734581</v>
       </c>
       <c r="Y15" t="n">
-        <v>565.8946880272717</v>
+        <v>163.5731897489653</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.0477910223862</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="C16" t="n">
-        <v>175.0477910223862</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="D16" t="n">
-        <v>175.0477910223862</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="E16" t="n">
-        <v>175.0477910223862</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="F16" t="n">
-        <v>173.9806968973594</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="G16" t="n">
-        <v>173.9806968973594</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H16" t="n">
         <v>27.34082230314441</v>
@@ -5436,22 +5436,22 @@
         <v>27.34082230314441</v>
       </c>
       <c r="J16" t="n">
-        <v>27.34082230314441</v>
+        <v>66.45306417582705</v>
       </c>
       <c r="K16" t="n">
-        <v>57.52162409307878</v>
+        <v>261.4889387084428</v>
       </c>
       <c r="L16" t="n">
-        <v>158.2658946134442</v>
+        <v>570.4746716803967</v>
       </c>
       <c r="M16" t="n">
-        <v>496.6085706148563</v>
+        <v>908.8173476818088</v>
       </c>
       <c r="N16" t="n">
-        <v>828.8991145837706</v>
+        <v>1241.107891650723</v>
       </c>
       <c r="O16" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P16" t="n">
         <v>1367.041115157221</v>
@@ -5463,25 +5463,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S16" t="n">
-        <v>1181.549921670758</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T16" t="n">
-        <v>1181.549921670758</v>
+        <v>1135.569689019542</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.549921670758</v>
+        <v>1135.569689019542</v>
       </c>
       <c r="V16" t="n">
-        <v>915.5705764915821</v>
+        <v>869.5903438403658</v>
       </c>
       <c r="W16" t="n">
-        <v>632.2401744227598</v>
+        <v>586.2599417715435</v>
       </c>
       <c r="X16" t="n">
-        <v>398.1598522057428</v>
+        <v>586.2599417715435</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.0477910223862</v>
+        <v>363.1478805881868</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.2366736159145</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="C17" t="n">
-        <v>80.2366736159145</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="D17" t="n">
-        <v>80.2366736159145</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="E17" t="n">
-        <v>80.2366736159145</v>
+        <v>676.6163095222607</v>
       </c>
       <c r="F17" t="n">
-        <v>80.2366736159145</v>
+        <v>372.5532251206244</v>
       </c>
       <c r="G17" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H17" t="n">
-        <v>80.2366736159145</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I17" t="n">
         <v>27.34082230314441</v>
       </c>
       <c r="J17" t="n">
-        <v>95.1944749267152</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K17" t="n">
-        <v>229.8695478244278</v>
+        <v>229.869547824428</v>
       </c>
       <c r="L17" t="n">
-        <v>420.9320297462636</v>
+        <v>420.9320297462638</v>
       </c>
       <c r="M17" t="n">
-        <v>654.1109890220051</v>
+        <v>654.1109890220054</v>
       </c>
       <c r="N17" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861662</v>
       </c>
       <c r="O17" t="n">
-        <v>1111.973021646432</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P17" t="n">
         <v>1275.529383879705</v>
@@ -5548,19 +5548,19 @@
         <v>1367.041115157221</v>
       </c>
       <c r="U17" t="n">
-        <v>1111.465684113253</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="V17" t="n">
-        <v>769.3588748167716</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="W17" t="n">
-        <v>424.1464719992916</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="X17" t="n">
-        <v>424.1464719992916</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Y17" t="n">
-        <v>80.2366736159145</v>
+        <v>1021.828712339741</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.5880804178018</v>
+        <v>314.4415436321645</v>
       </c>
       <c r="C18" t="n">
-        <v>622.5880804178018</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="D18" t="n">
-        <v>492.4991130392822</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="E18" t="n">
-        <v>356.05262215017</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="F18" t="n">
-        <v>231.6208160333018</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7467865064781</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H18" t="n">
-        <v>35.90158966711749</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I18" t="n">
         <v>27.34082230314441</v>
@@ -5597,49 +5597,49 @@
         <v>55.52239243964172</v>
       </c>
       <c r="K18" t="n">
-        <v>154.4898205685661</v>
+        <v>393.8650684410538</v>
       </c>
       <c r="L18" t="n">
-        <v>492.8324965699783</v>
+        <v>557.0486406504533</v>
       </c>
       <c r="M18" t="n">
-        <v>695.8419927784673</v>
+        <v>760.0581368589424</v>
       </c>
       <c r="N18" t="n">
-        <v>913.5901654732218</v>
+        <v>977.8063095536968</v>
       </c>
       <c r="O18" t="n">
-        <v>1098.344336051235</v>
+        <v>1162.56048013171</v>
       </c>
       <c r="P18" t="n">
-        <v>1234.05935309736</v>
+        <v>1298.275497177835</v>
       </c>
       <c r="Q18" t="n">
-        <v>1318.324407352075</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="R18" t="n">
         <v>1367.041115157221</v>
       </c>
       <c r="S18" t="n">
-        <v>1367.041115157221</v>
+        <v>1254.135937528826</v>
       </c>
       <c r="T18" t="n">
-        <v>1285.230458839983</v>
+        <v>1081.931685117233</v>
       </c>
       <c r="U18" t="n">
-        <v>1075.245327913448</v>
+        <v>871.9465541906975</v>
       </c>
       <c r="V18" t="n">
-        <v>852.705326284515</v>
+        <v>696.355123939839</v>
       </c>
       <c r="W18" t="n">
-        <v>622.5880804178018</v>
+        <v>466.2378780731258</v>
       </c>
       <c r="X18" t="n">
-        <v>622.5880804178018</v>
+        <v>466.2378780731258</v>
       </c>
       <c r="Y18" t="n">
-        <v>622.5880804178018</v>
+        <v>466.2378780731258</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>683.0600736991718</v>
+        <v>98.45518003845606</v>
       </c>
       <c r="C19" t="n">
-        <v>683.0600736991718</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="D19" t="n">
-        <v>599.9978082539985</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="E19" t="n">
-        <v>444.438996113201</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="F19" t="n">
-        <v>444.438996113201</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="G19" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="H19" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314441</v>
       </c>
       <c r="I19" t="n">
         <v>27.34082230314441</v>
@@ -5679,19 +5679,19 @@
         <v>261.4889387084428</v>
       </c>
       <c r="L19" t="n">
-        <v>319.54874261962</v>
+        <v>325.0573857556813</v>
       </c>
       <c r="M19" t="n">
-        <v>657.8914186210322</v>
+        <v>663.4000617570935</v>
       </c>
       <c r="N19" t="n">
-        <v>990.1819625899466</v>
+        <v>995.6906057260078</v>
       </c>
       <c r="O19" t="n">
-        <v>1290.605552640711</v>
+        <v>1044.312646241303</v>
       </c>
       <c r="P19" t="n">
-        <v>1367.041115157221</v>
+        <v>1282.031056763989</v>
       </c>
       <c r="Q19" t="n">
         <v>1367.041115157221</v>
@@ -5703,22 +5703,22 @@
         <v>1102.34841460749</v>
       </c>
       <c r="T19" t="n">
-        <v>1102.34841460749</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="U19" t="n">
-        <v>1102.34841460749</v>
+        <v>870.8769884698108</v>
       </c>
       <c r="V19" t="n">
-        <v>1102.34841460749</v>
+        <v>604.8976432906351</v>
       </c>
       <c r="W19" t="n">
-        <v>1102.34841460749</v>
+        <v>321.5672412218127</v>
       </c>
       <c r="X19" t="n">
-        <v>868.268092390473</v>
+        <v>321.5672412218127</v>
       </c>
       <c r="Y19" t="n">
-        <v>868.268092390473</v>
+        <v>98.45518003845606</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.5532251206244</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="C20" t="n">
-        <v>372.5532251206244</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="D20" t="n">
-        <v>372.5532251206244</v>
+        <v>673.9392945211946</v>
       </c>
       <c r="E20" t="n">
-        <v>27.34082230314441</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F20" t="n">
-        <v>27.34082230314441</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G20" t="n">
-        <v>27.34082230314441</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H20" t="n">
         <v>27.34082230314441</v>
@@ -5752,22 +5752,22 @@
         <v>27.34082230314441</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19447492671543</v>
+        <v>95.1944749267152</v>
       </c>
       <c r="K20" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244278</v>
       </c>
       <c r="L20" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462636</v>
       </c>
       <c r="M20" t="n">
-        <v>654.1109890220054</v>
+        <v>654.1109890220051</v>
       </c>
       <c r="N20" t="n">
-        <v>894.0620030861662</v>
+        <v>894.062003086166</v>
       </c>
       <c r="O20" t="n">
-        <v>1111.973021646433</v>
+        <v>1111.973021646432</v>
       </c>
       <c r="P20" t="n">
         <v>1275.529383879705</v>
@@ -5779,25 +5779,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S20" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="T20" t="n">
-        <v>1153.24206618635</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="U20" t="n">
-        <v>1153.24206618635</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="V20" t="n">
-        <v>811.1352568898682</v>
+        <v>1251.029935812964</v>
       </c>
       <c r="W20" t="n">
-        <v>811.1352568898682</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="X20" t="n">
-        <v>811.1352568898682</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="Y20" t="n">
-        <v>717.7656279381044</v>
+        <v>1019.151697338675</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>483.9383456753092</v>
+        <v>267.4929722540901</v>
       </c>
       <c r="C21" t="n">
-        <v>483.9383456753092</v>
+        <v>267.4929722540901</v>
       </c>
       <c r="D21" t="n">
-        <v>483.9383456753092</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="E21" t="n">
-        <v>347.4918547861969</v>
+        <v>223.0600486693287</v>
       </c>
       <c r="F21" t="n">
         <v>223.0600486693287</v>
@@ -5834,25 +5834,25 @@
         <v>55.52239243964172</v>
       </c>
       <c r="K21" t="n">
-        <v>393.8650684410538</v>
+        <v>154.4898205685661</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0486406504533</v>
+        <v>317.6733927779655</v>
       </c>
       <c r="M21" t="n">
-        <v>760.0581368589424</v>
+        <v>520.6828889864546</v>
       </c>
       <c r="N21" t="n">
-        <v>988.2975103955574</v>
+        <v>738.431061681209</v>
       </c>
       <c r="O21" t="n">
-        <v>1173.051680973571</v>
+        <v>923.1852322592225</v>
       </c>
       <c r="P21" t="n">
-        <v>1308.766698019695</v>
+        <v>1058.900249305347</v>
       </c>
       <c r="Q21" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R21" t="n">
         <v>1367.041115157221</v>
@@ -5867,16 +5867,16 @@
         <v>871.9465541906975</v>
       </c>
       <c r="V21" t="n">
-        <v>871.9465541906975</v>
+        <v>649.4065525617646</v>
       </c>
       <c r="W21" t="n">
-        <v>641.8293083239844</v>
+        <v>419.2893066950514</v>
       </c>
       <c r="X21" t="n">
-        <v>641.8293083239844</v>
+        <v>419.2893066950514</v>
       </c>
       <c r="Y21" t="n">
-        <v>483.9383456753092</v>
+        <v>419.2893066950514</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="C22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="D22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="E22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="F22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="G22" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H22" t="n">
-        <v>27.34082230314441</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I22" t="n">
         <v>27.34082230314441</v>
@@ -5916,19 +5916,19 @@
         <v>261.4889387084428</v>
       </c>
       <c r="L22" t="n">
-        <v>570.4746716803967</v>
+        <v>366.7700309956493</v>
       </c>
       <c r="M22" t="n">
-        <v>633.8084782787487</v>
+        <v>705.1127069970614</v>
       </c>
       <c r="N22" t="n">
-        <v>966.099022247663</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O22" t="n">
-        <v>1044.312646241303</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P22" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="Q22" t="n">
         <v>1367.041115157221</v>
@@ -5937,25 +5937,25 @@
         <v>1287.839608093953</v>
       </c>
       <c r="S22" t="n">
-        <v>1287.839608093953</v>
+        <v>1247.831320211825</v>
       </c>
       <c r="T22" t="n">
-        <v>1161.984006623738</v>
+        <v>1247.831320211825</v>
       </c>
       <c r="U22" t="n">
-        <v>876.5994398744999</v>
+        <v>962.4467534625863</v>
       </c>
       <c r="V22" t="n">
-        <v>876.5994398744999</v>
+        <v>696.4674082834106</v>
       </c>
       <c r="W22" t="n">
-        <v>593.2690378056776</v>
+        <v>696.4674082834106</v>
       </c>
       <c r="X22" t="n">
-        <v>359.1887155886607</v>
+        <v>462.3870860663936</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.1887155886607</v>
+        <v>462.3870860663936</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1265.083097551762</v>
+        <v>732.0123191233346</v>
       </c>
       <c r="C23" t="n">
-        <v>1265.083097551762</v>
+        <v>732.0123191233346</v>
       </c>
       <c r="D23" t="n">
-        <v>911.6110211297305</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="E23" t="n">
-        <v>509.0274962462751</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="F23" t="n">
-        <v>509.0274962462751</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="G23" t="n">
-        <v>98.08097225220226</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="H23" t="n">
-        <v>98.08097225220226</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I23" t="n">
         <v>45.18512093943219</v>
@@ -5995,46 +5995,46 @@
         <v>508.8666589324665</v>
       </c>
       <c r="L23" t="n">
-        <v>993.9321039993399</v>
+        <v>699.9291408543022</v>
       </c>
       <c r="M23" t="n">
-        <v>1227.111063275082</v>
+        <v>933.1081001300438</v>
       </c>
       <c r="N23" t="n">
-        <v>1786.276934900555</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O23" t="n">
-        <v>2004.187953460821</v>
+        <v>1390.970132754471</v>
       </c>
       <c r="P23" t="n">
-        <v>2167.744315694094</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q23" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R23" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.25604697161</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T23" t="n">
-        <v>2259.25604697161</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U23" t="n">
-        <v>2003.680615927642</v>
+        <v>1673.870387612515</v>
       </c>
       <c r="V23" t="n">
-        <v>1661.573806631161</v>
+        <v>1331.763578316034</v>
       </c>
       <c r="W23" t="n">
-        <v>1661.573806631161</v>
+        <v>960.764543284321</v>
       </c>
       <c r="X23" t="n">
-        <v>1661.573806631161</v>
+        <v>732.0123191233346</v>
       </c>
       <c r="Y23" t="n">
-        <v>1265.083097551762</v>
+        <v>732.0123191233346</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>791.0866094939975</v>
+        <v>791.0866094939977</v>
       </c>
       <c r="C24" t="n">
-        <v>640.4323790540897</v>
+        <v>640.4323790540898</v>
       </c>
       <c r="D24" t="n">
-        <v>510.34341167557</v>
+        <v>510.3434116755702</v>
       </c>
       <c r="E24" t="n">
-        <v>373.8969207864577</v>
+        <v>373.8969207864579</v>
       </c>
       <c r="F24" t="n">
-        <v>249.4651146695895</v>
+        <v>249.4651146695896</v>
       </c>
       <c r="G24" t="n">
-        <v>130.5910851427658</v>
+        <v>130.5910851427659</v>
       </c>
       <c r="H24" t="n">
         <v>53.74588830340527</v>
@@ -6077,19 +6077,19 @@
         <v>938.6927984362071</v>
       </c>
       <c r="M24" t="n">
-        <v>1497.85867006168</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N24" t="n">
-        <v>1880.512442209946</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.26661278796</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P24" t="n">
-        <v>2200.981629834084</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q24" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R24" t="n">
         <v>2259.25604697161</v>
@@ -6113,7 +6113,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y24" t="n">
-        <v>942.8829439349588</v>
+        <v>942.882943934959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>649.4949114531333</v>
+        <v>503.3381307439801</v>
       </c>
       <c r="C25" t="n">
-        <v>479.2897935191226</v>
+        <v>503.3381307439801</v>
       </c>
       <c r="D25" t="n">
-        <v>323.6566804216373</v>
+        <v>503.3381307439801</v>
       </c>
       <c r="E25" t="n">
-        <v>202.5110557264592</v>
+        <v>369.7709844645678</v>
       </c>
       <c r="F25" t="n">
-        <v>45.18512093943219</v>
+        <v>212.4450496775408</v>
       </c>
       <c r="G25" t="n">
         <v>45.18512093943219</v>
@@ -6174,25 +6174,25 @@
         <v>1803.584193095913</v>
       </c>
       <c r="S25" t="n">
-        <v>1618.09299960945</v>
+        <v>1803.584193095913</v>
       </c>
       <c r="T25" t="n">
-        <v>1618.09299960945</v>
+        <v>1572.112766958234</v>
       </c>
       <c r="U25" t="n">
-        <v>1618.09299960945</v>
+        <v>1286.728200208995</v>
       </c>
       <c r="V25" t="n">
-        <v>1352.113654430274</v>
+        <v>1020.748855029819</v>
       </c>
       <c r="W25" t="n">
-        <v>1068.783252361452</v>
+        <v>737.418452960997</v>
       </c>
       <c r="X25" t="n">
-        <v>834.7029301444346</v>
+        <v>503.3381307439801</v>
       </c>
       <c r="Y25" t="n">
-        <v>834.7029301444346</v>
+        <v>503.3381307439801</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1462.270592180814</v>
+        <v>1102.313697793555</v>
       </c>
       <c r="C26" t="n">
-        <v>1069.095090683744</v>
+        <v>1102.313697793555</v>
       </c>
       <c r="D26" t="n">
-        <v>683.653961900412</v>
+        <v>716.8725690102226</v>
       </c>
       <c r="E26" t="n">
-        <v>281.0704370169565</v>
+        <v>716.8725690102226</v>
       </c>
       <c r="F26" t="n">
-        <v>281.0704370169565</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G26" t="n">
-        <v>281.0704370169565</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H26" t="n">
         <v>45.18512093943219</v>
@@ -6232,22 +6232,22 @@
         <v>508.8666589324665</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9291408543022</v>
+        <v>886.0395771557089</v>
       </c>
       <c r="M26" t="n">
-        <v>933.1081001300438</v>
+        <v>1119.218536431451</v>
       </c>
       <c r="N26" t="n">
-        <v>1173.059114194205</v>
+        <v>1359.169550495611</v>
       </c>
       <c r="O26" t="n">
-        <v>1676.288681885664</v>
+        <v>1577.080569055878</v>
       </c>
       <c r="P26" t="n">
-        <v>1839.845044118937</v>
+        <v>1740.63693128915</v>
       </c>
       <c r="Q26" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R26" t="n">
         <v>2259.25604697161</v>
@@ -6265,13 +6265,13 @@
         <v>2259.25604697161</v>
       </c>
       <c r="W26" t="n">
-        <v>2259.25604697161</v>
+        <v>1888.257011939897</v>
       </c>
       <c r="X26" t="n">
-        <v>2259.25604697161</v>
+        <v>1498.804406872954</v>
       </c>
       <c r="Y26" t="n">
-        <v>1862.765337892211</v>
+        <v>1102.313697793555</v>
       </c>
     </row>
     <row r="27">
@@ -6284,13 +6284,13 @@
         <v>791.0866094939979</v>
       </c>
       <c r="C27" t="n">
-        <v>640.43237905409</v>
+        <v>640.4323790540901</v>
       </c>
       <c r="D27" t="n">
-        <v>510.3434116755702</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E27" t="n">
-        <v>373.8969207864579</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F27" t="n">
         <v>249.4651146695895</v>
@@ -6299,7 +6299,7 @@
         <v>130.5910851427658</v>
       </c>
       <c r="H27" t="n">
-        <v>53.74588830340525</v>
+        <v>53.74588830340527</v>
       </c>
       <c r="I27" t="n">
         <v>45.18512093943219</v>
@@ -6314,19 +6314,19 @@
         <v>938.6927984362071</v>
       </c>
       <c r="M27" t="n">
-        <v>1497.85867006168</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N27" t="n">
-        <v>1880.512442209946</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O27" t="n">
-        <v>2065.26661278796</v>
+        <v>1544.204637917464</v>
       </c>
       <c r="P27" t="n">
-        <v>2200.981629834084</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q27" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R27" t="n">
         <v>2259.25604697161</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>997.8079022310762</v>
+        <v>619.6092295365158</v>
       </c>
       <c r="C28" t="n">
-        <v>827.6027842970655</v>
+        <v>619.6092295365158</v>
       </c>
       <c r="D28" t="n">
-        <v>671.9696711995803</v>
+        <v>619.6092295365158</v>
       </c>
       <c r="E28" t="n">
-        <v>516.4108590587828</v>
+        <v>619.6092295365158</v>
       </c>
       <c r="F28" t="n">
-        <v>359.0849242717558</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="G28" t="n">
-        <v>191.8249955336471</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="H28" t="n">
-        <v>45.18512093943219</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="I28" t="n">
         <v>45.18512093943219</v>
@@ -6408,28 +6408,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R28" t="n">
-        <v>1882.785700159181</v>
+        <v>1803.584193095913</v>
       </c>
       <c r="S28" t="n">
-        <v>1700.426645208217</v>
+        <v>1618.09299960945</v>
       </c>
       <c r="T28" t="n">
-        <v>1700.426645208217</v>
+        <v>1386.621573471771</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.426645208217</v>
+        <v>1101.237006722532</v>
       </c>
       <c r="V28" t="n">
-        <v>1700.426645208217</v>
+        <v>1101.237006722532</v>
       </c>
       <c r="W28" t="n">
-        <v>1417.096243139394</v>
+        <v>1101.237006722532</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.015920922378</v>
+        <v>867.1566845055155</v>
       </c>
       <c r="Y28" t="n">
-        <v>1183.015920922378</v>
+        <v>644.0446233221588</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.8212291379789</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="C29" t="n">
-        <v>45.18512093943219</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="D29" t="n">
-        <v>45.18512093943219</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="E29" t="n">
-        <v>45.18512093943219</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="F29" t="n">
-        <v>45.18512093943219</v>
+        <v>509.0274962462751</v>
       </c>
       <c r="G29" t="n">
-        <v>45.18512093943219</v>
+        <v>98.08097225220226</v>
       </c>
       <c r="H29" t="n">
-        <v>45.18512093943219</v>
+        <v>98.08097225220226</v>
       </c>
       <c r="I29" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J29" t="n">
-        <v>374.1915860347539</v>
+        <v>113.0387735630032</v>
       </c>
       <c r="K29" t="n">
-        <v>508.8666589324665</v>
+        <v>247.7138464607158</v>
       </c>
       <c r="L29" t="n">
-        <v>699.9291408543022</v>
+        <v>477.0744862734581</v>
       </c>
       <c r="M29" t="n">
-        <v>933.1081001300438</v>
+        <v>710.2534455491997</v>
       </c>
       <c r="N29" t="n">
-        <v>1492.273971755517</v>
+        <v>950.2044596133605</v>
       </c>
       <c r="O29" t="n">
-        <v>1710.184990315784</v>
+        <v>1509.370331238834</v>
       </c>
       <c r="P29" t="n">
-        <v>2167.744315694094</v>
+        <v>2068.536202864307</v>
       </c>
       <c r="Q29" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R29" t="n">
         <v>2259.25604697161</v>
@@ -6493,22 +6493,22 @@
         <v>2143.244867627353</v>
       </c>
       <c r="T29" t="n">
-        <v>1929.445818656483</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="U29" t="n">
-        <v>1673.870387612515</v>
+        <v>1887.669436583386</v>
       </c>
       <c r="V29" t="n">
-        <v>1331.763578316034</v>
+        <v>1545.562627286904</v>
       </c>
       <c r="W29" t="n">
-        <v>960.764543284321</v>
+        <v>1174.563592255192</v>
       </c>
       <c r="X29" t="n">
-        <v>571.3119382173778</v>
+        <v>785.1109871882487</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.8212291379789</v>
+        <v>509.0274962462751</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>791.0866094939975</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C30" t="n">
-        <v>640.4323790540897</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D30" t="n">
-        <v>510.34341167557</v>
+        <v>510.3434116755702</v>
       </c>
       <c r="E30" t="n">
-        <v>373.8969207864577</v>
+        <v>373.8969207864579</v>
       </c>
       <c r="F30" t="n">
-        <v>249.4651146695895</v>
+        <v>249.4651146695896</v>
       </c>
       <c r="G30" t="n">
-        <v>130.5910851427658</v>
+        <v>130.5910851427659</v>
       </c>
       <c r="H30" t="n">
         <v>53.74588830340527</v>
@@ -6569,7 +6569,7 @@
         <v>2259.25604697161</v>
       </c>
       <c r="S30" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T30" t="n">
         <v>1974.146616931621</v>
@@ -6587,7 +6587,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8829439349588</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.4816511867698</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="C31" t="n">
-        <v>471.2765332527591</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="D31" t="n">
-        <v>315.6434201552738</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="E31" t="n">
-        <v>315.6434201552738</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="F31" t="n">
-        <v>315.6434201552738</v>
+        <v>359.0849242717558</v>
       </c>
       <c r="G31" t="n">
-        <v>148.3834914171652</v>
+        <v>191.8249955336471</v>
       </c>
       <c r="H31" t="n">
-        <v>148.3834914171652</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I31" t="n">
         <v>45.18512093943219</v>
@@ -6648,25 +6648,25 @@
         <v>1882.785700159181</v>
       </c>
       <c r="S31" t="n">
-        <v>1882.785700159181</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T31" t="n">
-        <v>1651.314274021501</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U31" t="n">
-        <v>1365.929707272263</v>
+        <v>1180.4385137858</v>
       </c>
       <c r="V31" t="n">
-        <v>1365.929707272263</v>
+        <v>914.4591686066245</v>
       </c>
       <c r="W31" t="n">
-        <v>1283.882053278445</v>
+        <v>750.4911812757997</v>
       </c>
       <c r="X31" t="n">
-        <v>1049.801731061428</v>
+        <v>516.4108590587828</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.6896698780711</v>
+        <v>516.4108590587828</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1598.438219313633</v>
+        <v>1603.185870216245</v>
       </c>
       <c r="C32" t="n">
-        <v>1598.438219313633</v>
+        <v>1603.185870216245</v>
       </c>
       <c r="D32" t="n">
-        <v>1212.997090530301</v>
+        <v>1603.185870216245</v>
       </c>
       <c r="E32" t="n">
-        <v>810.4135656468452</v>
+        <v>1227.308004116867</v>
       </c>
       <c r="F32" t="n">
         <v>810.4135656468452</v>
@@ -6700,52 +6700,52 @@
         <v>45.18512093943219</v>
       </c>
       <c r="J32" t="n">
-        <v>374.1915860347539</v>
+        <v>113.0387735630032</v>
       </c>
       <c r="K32" t="n">
-        <v>933.3574576602273</v>
+        <v>247.7138464607158</v>
       </c>
       <c r="L32" t="n">
-        <v>1124.419939582063</v>
+        <v>438.7763283825517</v>
       </c>
       <c r="M32" t="n">
-        <v>1357.598898857805</v>
+        <v>997.942200008025</v>
       </c>
       <c r="N32" t="n">
-        <v>1597.549912921966</v>
+        <v>1237.893214072186</v>
       </c>
       <c r="O32" t="n">
-        <v>1815.460931482232</v>
+        <v>1455.804232632452</v>
       </c>
       <c r="P32" t="n">
-        <v>1979.017293715504</v>
+        <v>2014.970104257926</v>
       </c>
       <c r="Q32" t="n">
-        <v>2259.25604697161</v>
+        <v>2160.047934141823</v>
       </c>
       <c r="R32" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S32" t="n">
-        <v>2143.244867627353</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="T32" t="n">
-        <v>1929.445818656483</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="U32" t="n">
-        <v>1929.445818656483</v>
+        <v>2003.680615927642</v>
       </c>
       <c r="V32" t="n">
-        <v>1929.445818656483</v>
+        <v>2003.680615927642</v>
       </c>
       <c r="W32" t="n">
-        <v>1929.445818656483</v>
+        <v>2003.680615927642</v>
       </c>
       <c r="X32" t="n">
-        <v>1598.438219313633</v>
+        <v>2003.680615927642</v>
       </c>
       <c r="Y32" t="n">
-        <v>1598.438219313633</v>
+        <v>2003.680615927642</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>791.0866094939979</v>
+        <v>791.0866094939975</v>
       </c>
       <c r="C33" t="n">
-        <v>640.43237905409</v>
+        <v>640.4323790540897</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3434116755702</v>
+        <v>510.34341167557</v>
       </c>
       <c r="E33" t="n">
-        <v>373.8969207864579</v>
+        <v>373.8969207864577</v>
       </c>
       <c r="F33" t="n">
-        <v>249.4651146695898</v>
+        <v>249.4651146695895</v>
       </c>
       <c r="G33" t="n">
-        <v>130.5910851427661</v>
+        <v>130.5910851427658</v>
       </c>
       <c r="H33" t="n">
         <v>53.74588830340527</v>
@@ -6782,10 +6782,10 @@
         <v>268.1016860556569</v>
       </c>
       <c r="K33" t="n">
-        <v>775.5092262268076</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L33" t="n">
-        <v>938.6927984362071</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M33" t="n">
         <v>1141.702294644696</v>
@@ -6797,16 +6797,16 @@
         <v>1544.204637917464</v>
       </c>
       <c r="P33" t="n">
-        <v>1876.538266654839</v>
+        <v>2103.370509542938</v>
       </c>
       <c r="Q33" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166463</v>
       </c>
       <c r="R33" t="n">
-        <v>2259.25604697161</v>
+        <v>2259.256046971609</v>
       </c>
       <c r="S33" t="n">
-        <v>2146.350869343215</v>
+        <v>2146.350869343214</v>
       </c>
       <c r="T33" t="n">
         <v>1974.146616931621</v>
@@ -6824,7 +6824,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.8829439349593</v>
+        <v>942.8829439349588</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.73487607416078</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="C34" t="n">
-        <v>94.73487607416078</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="D34" t="n">
-        <v>45.18512093943219</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="E34" t="n">
-        <v>45.18512093943219</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="F34" t="n">
-        <v>45.18512093943219</v>
+        <v>462.2832947494888</v>
       </c>
       <c r="G34" t="n">
-        <v>45.18512093943219</v>
+        <v>295.0233660113802</v>
       </c>
       <c r="H34" t="n">
-        <v>45.18512093943219</v>
+        <v>148.3834914171652</v>
       </c>
       <c r="I34" t="n">
         <v>45.18512093943219</v>
       </c>
       <c r="J34" t="n">
-        <v>84.29736281211481</v>
+        <v>84.29736281211484</v>
       </c>
       <c r="K34" t="n">
-        <v>279.3332373447305</v>
+        <v>279.3332373447306</v>
       </c>
       <c r="L34" t="n">
         <v>588.3189703166845</v>
@@ -6882,28 +6882,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R34" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S34" t="n">
-        <v>1618.09299960945</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T34" t="n">
-        <v>1386.621573471771</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.237006722532</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="V34" t="n">
-        <v>835.2576615433567</v>
+        <v>1199.843735355863</v>
       </c>
       <c r="W34" t="n">
-        <v>551.9272594745344</v>
+        <v>1104.683696841164</v>
       </c>
       <c r="X34" t="n">
-        <v>317.8469372575174</v>
+        <v>870.6033746241468</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.73487607416078</v>
+        <v>647.4913134407901</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1021.828712339741</v>
+        <v>673.9392945211947</v>
       </c>
       <c r="C35" t="n">
-        <v>676.6163095222607</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="D35" t="n">
-        <v>372.5532251206245</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="E35" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F35" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G35" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H35" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I35" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J35" t="n">
-        <v>95.19447492671544</v>
+        <v>95.19447492671549</v>
       </c>
       <c r="K35" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L35" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M35" t="n">
-        <v>654.1109890220054</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N35" t="n">
-        <v>894.0620030861662</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O35" t="n">
         <v>1111.973021646433</v>
@@ -6964,25 +6964,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S35" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T35" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U35" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="W35" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="X35" t="n">
-        <v>1367.041115157221</v>
+        <v>1019.151697338675</v>
       </c>
       <c r="Y35" t="n">
-        <v>1021.828712339741</v>
+        <v>1019.151697338675</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>460.3752779422302</v>
+        <v>314.4415436321645</v>
       </c>
       <c r="C36" t="n">
-        <v>460.3752779422302</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="D36" t="n">
-        <v>330.2863105637106</v>
+        <v>163.7873131922567</v>
       </c>
       <c r="E36" t="n">
-        <v>193.8398196745983</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="F36" t="n">
-        <v>193.8398196745983</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="G36" t="n">
-        <v>74.96579014777461</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="H36" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I36" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J36" t="n">
-        <v>55.52239243964173</v>
+        <v>55.52239243964175</v>
       </c>
       <c r="K36" t="n">
-        <v>355.6395614777684</v>
+        <v>154.4898205685662</v>
       </c>
       <c r="L36" t="n">
-        <v>518.8231336871678</v>
+        <v>317.6733927779657</v>
       </c>
       <c r="M36" t="n">
-        <v>721.8326298956569</v>
+        <v>520.6828889864547</v>
       </c>
       <c r="N36" t="n">
-        <v>939.5808025904113</v>
+        <v>738.4310616812093</v>
       </c>
       <c r="O36" t="n">
-        <v>1124.334973168425</v>
+        <v>923.1852322592229</v>
       </c>
       <c r="P36" t="n">
         <v>1260.04999021455</v>
@@ -7043,25 +7043,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S36" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157221</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.135937528826</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U36" t="n">
-        <v>1254.135937528826</v>
+        <v>984.8517318190932</v>
       </c>
       <c r="V36" t="n">
-        <v>1031.595935899893</v>
+        <v>762.3117301901602</v>
       </c>
       <c r="W36" t="n">
-        <v>801.4786900331799</v>
+        <v>532.1944843234471</v>
       </c>
       <c r="X36" t="n">
-        <v>612.1716123831916</v>
+        <v>342.8874066734588</v>
       </c>
       <c r="Y36" t="n">
-        <v>612.1716123831916</v>
+        <v>314.4415436321645</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>757.3237430410256</v>
+        <v>460.9870891705469</v>
       </c>
       <c r="C37" t="n">
-        <v>757.3237430410256</v>
+        <v>460.9870891705469</v>
       </c>
       <c r="D37" t="n">
-        <v>757.3237430410256</v>
+        <v>305.3539760730617</v>
       </c>
       <c r="E37" t="n">
-        <v>601.7649309002281</v>
+        <v>305.3539760730617</v>
       </c>
       <c r="F37" t="n">
-        <v>444.438996113201</v>
+        <v>305.3539760730617</v>
       </c>
       <c r="G37" t="n">
         <v>277.1790673750924</v>
@@ -7092,25 +7092,25 @@
         <v>130.5391927808774</v>
       </c>
       <c r="I37" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J37" t="n">
-        <v>27.34082230314442</v>
+        <v>66.45306417582708</v>
       </c>
       <c r="K37" t="n">
-        <v>101.0817111769593</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L37" t="n">
-        <v>410.0674441489132</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M37" t="n">
-        <v>748.4101201503254</v>
+        <v>908.8173476818091</v>
       </c>
       <c r="N37" t="n">
-        <v>1080.70066411924</v>
+        <v>1037.403250965976</v>
       </c>
       <c r="O37" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.82684101674</v>
       </c>
       <c r="P37" t="n">
         <v>1367.041115157221</v>
@@ -7122,25 +7122,25 @@
         <v>1367.041115157221</v>
       </c>
       <c r="S37" t="n">
-        <v>1367.041115157221</v>
+        <v>1181.549921670759</v>
       </c>
       <c r="T37" t="n">
-        <v>1367.041115157221</v>
+        <v>950.0784955330794</v>
       </c>
       <c r="U37" t="n">
-        <v>1274.734467326865</v>
+        <v>950.0784955330794</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.734467326865</v>
+        <v>684.0991503539036</v>
       </c>
       <c r="W37" t="n">
-        <v>991.4040652580426</v>
+        <v>684.0991503539036</v>
       </c>
       <c r="X37" t="n">
-        <v>757.3237430410256</v>
+        <v>684.0991503539036</v>
       </c>
       <c r="Y37" t="n">
-        <v>757.3237430410256</v>
+        <v>460.9870891705469</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>717.7656279381044</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="C38" t="n">
-        <v>717.7656279381044</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="D38" t="n">
-        <v>372.5532251206245</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="E38" t="n">
-        <v>372.5532251206245</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F38" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G38" t="n">
-        <v>27.34082230314442</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H38" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I38" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J38" t="n">
-        <v>95.19447492671544</v>
+        <v>95.19447492671549</v>
       </c>
       <c r="K38" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L38" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M38" t="n">
-        <v>654.1109890220054</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N38" t="n">
-        <v>894.0620030861662</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O38" t="n">
         <v>1111.973021646433</v>
@@ -7195,31 +7195,31 @@
         <v>1275.529383879705</v>
       </c>
       <c r="Q38" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R38" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S38" t="n">
         <v>1251.029935812965</v>
       </c>
       <c r="T38" t="n">
-        <v>1037.230886842094</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U38" t="n">
-        <v>1037.230886842094</v>
+        <v>1016.046103817676</v>
       </c>
       <c r="V38" t="n">
-        <v>1037.230886842094</v>
+        <v>673.9392945211948</v>
       </c>
       <c r="W38" t="n">
-        <v>1037.230886842094</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="X38" t="n">
-        <v>1037.230886842094</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="Y38" t="n">
-        <v>717.7656279381044</v>
+        <v>328.7268917037146</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.2423108577096</v>
+        <v>302.4370479347494</v>
       </c>
       <c r="C39" t="n">
-        <v>622.5880804178018</v>
+        <v>302.4370479347494</v>
       </c>
       <c r="D39" t="n">
-        <v>492.4991130392822</v>
+        <v>172.3480805562298</v>
       </c>
       <c r="E39" t="n">
-        <v>356.05262215017</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="F39" t="n">
-        <v>231.6208160333018</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7467865064781</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H39" t="n">
         <v>35.90158966711751</v>
       </c>
       <c r="I39" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J39" t="n">
-        <v>55.52239243964173</v>
+        <v>250.2573874193691</v>
       </c>
       <c r="K39" t="n">
-        <v>154.4898205685661</v>
+        <v>349.2248155482936</v>
       </c>
       <c r="L39" t="n">
-        <v>317.6733927779655</v>
+        <v>512.408387757693</v>
       </c>
       <c r="M39" t="n">
-        <v>520.6828889864546</v>
+        <v>715.4178839661821</v>
       </c>
       <c r="N39" t="n">
-        <v>859.0255649878668</v>
+        <v>939.5808025904118</v>
       </c>
       <c r="O39" t="n">
-        <v>1043.77973556588</v>
+        <v>1124.334973168425</v>
       </c>
       <c r="P39" t="n">
-        <v>1308.766698019696</v>
+        <v>1260.04999021455</v>
       </c>
       <c r="Q39" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R39" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S39" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T39" t="n">
-        <v>1367.041115157221</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U39" t="n">
-        <v>1326.892863852097</v>
+        <v>984.8517318190934</v>
       </c>
       <c r="V39" t="n">
-        <v>1104.352862223164</v>
+        <v>901.1755883759437</v>
       </c>
       <c r="W39" t="n">
-        <v>1104.352862223164</v>
+        <v>671.0583425092306</v>
       </c>
       <c r="X39" t="n">
-        <v>1104.352862223164</v>
+        <v>481.7512648592422</v>
       </c>
       <c r="Y39" t="n">
-        <v>925.038645298671</v>
+        <v>302.4370479347494</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>677.7649168597761</v>
+        <v>453.4322346164714</v>
       </c>
       <c r="C40" t="n">
-        <v>507.5597989257654</v>
+        <v>453.4322346164714</v>
       </c>
       <c r="D40" t="n">
-        <v>351.9266858282801</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="E40" t="n">
-        <v>351.9266858282801</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="F40" t="n">
-        <v>194.6007510412531</v>
+        <v>297.7991215189861</v>
       </c>
       <c r="G40" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34082230314442</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I40" t="n">
-        <v>27.34082230314442</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J40" t="n">
-        <v>66.45306417582705</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="K40" t="n">
-        <v>261.4889387084428</v>
+        <v>57.52162409307883</v>
       </c>
       <c r="L40" t="n">
-        <v>570.4746716803967</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M40" t="n">
-        <v>908.8173476818089</v>
+        <v>704.8500330664451</v>
       </c>
       <c r="N40" t="n">
-        <v>1204.194742108213</v>
+        <v>1037.140577035359</v>
       </c>
       <c r="O40" t="n">
-        <v>1252.816782623508</v>
+        <v>1337.564167086123</v>
       </c>
       <c r="P40" t="n">
-        <v>1282.031056763989</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R40" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S40" t="n">
-        <v>1181.549921670758</v>
+        <v>1181.549921670759</v>
       </c>
       <c r="T40" t="n">
-        <v>1181.549921670758</v>
+        <v>1181.549921670759</v>
       </c>
       <c r="U40" t="n">
-        <v>943.7442620389519</v>
+        <v>1181.549921670759</v>
       </c>
       <c r="V40" t="n">
-        <v>677.7649168597761</v>
+        <v>915.570576491583</v>
       </c>
       <c r="W40" t="n">
-        <v>677.7649168597761</v>
+        <v>632.2401744227607</v>
       </c>
       <c r="X40" t="n">
-        <v>677.7649168597761</v>
+        <v>453.4322346164714</v>
       </c>
       <c r="Y40" t="n">
-        <v>677.7649168597761</v>
+        <v>453.4322346164714</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.4039067047808</v>
+        <v>218.4983208815232</v>
       </c>
       <c r="C41" t="n">
-        <v>331.4039067047808</v>
+        <v>218.4983208815232</v>
       </c>
       <c r="D41" t="n">
-        <v>331.4039067047808</v>
+        <v>218.4983208815232</v>
       </c>
       <c r="E41" t="n">
-        <v>331.4039067047808</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="F41" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="G41" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="H41" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I41" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J41" t="n">
-        <v>95.19447492671543</v>
+        <v>95.19447492671549</v>
       </c>
       <c r="K41" t="n">
-        <v>229.869547824428</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L41" t="n">
-        <v>420.9320297462638</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M41" t="n">
-        <v>654.1109890220054</v>
+        <v>654.1109890220056</v>
       </c>
       <c r="N41" t="n">
-        <v>894.0620030861662</v>
+        <v>894.0620030861666</v>
       </c>
       <c r="O41" t="n">
         <v>1111.973021646433</v>
@@ -7432,31 +7432,31 @@
         <v>1275.529383879705</v>
       </c>
       <c r="Q41" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R41" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S41" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T41" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="U41" t="n">
-        <v>1367.041115157221</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.041115157221</v>
+        <v>908.9231265164836</v>
       </c>
       <c r="W41" t="n">
-        <v>1021.828712339741</v>
+        <v>563.7107236990034</v>
       </c>
       <c r="X41" t="n">
-        <v>676.6163095222607</v>
+        <v>218.4983208815232</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.4039067047808</v>
+        <v>218.4983208815232</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.9905570456372</v>
+        <v>163.5731897489662</v>
       </c>
       <c r="C42" t="n">
-        <v>165.9905570456372</v>
+        <v>163.5731897489662</v>
       </c>
       <c r="D42" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="E42" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="F42" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="G42" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H42" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I42" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J42" t="n">
-        <v>55.52239243964172</v>
+        <v>55.52239243964175</v>
       </c>
       <c r="K42" t="n">
-        <v>154.4898205685661</v>
+        <v>154.4898205685662</v>
       </c>
       <c r="L42" t="n">
-        <v>492.8324965699783</v>
+        <v>317.6733927779657</v>
       </c>
       <c r="M42" t="n">
-        <v>695.8419927784673</v>
+        <v>520.6828889864547</v>
       </c>
       <c r="N42" t="n">
-        <v>913.5901654732218</v>
+        <v>738.4310616812093</v>
       </c>
       <c r="O42" t="n">
-        <v>1173.051680973571</v>
+        <v>1076.773737682622</v>
       </c>
       <c r="P42" t="n">
-        <v>1308.766698019695</v>
+        <v>1212.488754728746</v>
       </c>
       <c r="Q42" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R42" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S42" t="n">
-        <v>1254.135937528826</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T42" t="n">
-        <v>1081.931685117233</v>
+        <v>1194.836862745628</v>
       </c>
       <c r="U42" t="n">
-        <v>949.7583559067374</v>
+        <v>984.8517318190934</v>
       </c>
       <c r="V42" t="n">
-        <v>727.2183542778045</v>
+        <v>762.3117301901605</v>
       </c>
       <c r="W42" t="n">
-        <v>497.1011084110913</v>
+        <v>532.1944843234473</v>
       </c>
       <c r="X42" t="n">
-        <v>497.1011084110913</v>
+        <v>342.887406673459</v>
       </c>
       <c r="Y42" t="n">
-        <v>317.7868914865985</v>
+        <v>163.5731897489662</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>979.9636035947885</v>
+        <v>663.1186110665628</v>
       </c>
       <c r="C43" t="n">
-        <v>809.7584856607778</v>
+        <v>663.1186110665628</v>
       </c>
       <c r="D43" t="n">
-        <v>654.1253725632926</v>
+        <v>507.4854979690776</v>
       </c>
       <c r="E43" t="n">
-        <v>498.5665604224951</v>
+        <v>351.9266858282801</v>
       </c>
       <c r="F43" t="n">
-        <v>341.240625635468</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="G43" t="n">
-        <v>173.9806968973594</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="H43" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I43" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J43" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="K43" t="n">
-        <v>222.3766968357602</v>
+        <v>57.52162409307883</v>
       </c>
       <c r="L43" t="n">
-        <v>531.3624298077141</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M43" t="n">
-        <v>594.6962364060661</v>
+        <v>704.8500330664451</v>
       </c>
       <c r="N43" t="n">
-        <v>828.8991145837706</v>
+        <v>1037.140577035359</v>
       </c>
       <c r="O43" t="n">
-        <v>1129.322704634535</v>
+        <v>1337.564167086123</v>
       </c>
       <c r="P43" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R43" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S43" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T43" t="n">
-        <v>1287.839608093953</v>
+        <v>1214.482522994977</v>
       </c>
       <c r="U43" t="n">
-        <v>1287.839608093953</v>
+        <v>929.0979562457386</v>
       </c>
       <c r="V43" t="n">
-        <v>1287.839608093953</v>
+        <v>663.1186110665628</v>
       </c>
       <c r="W43" t="n">
-        <v>1287.839608093953</v>
+        <v>663.1186110665628</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.075664778145</v>
+        <v>663.1186110665628</v>
       </c>
       <c r="Y43" t="n">
-        <v>979.9636035947885</v>
+        <v>663.1186110665628</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>905.8175329954844</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="C44" t="n">
-        <v>560.6051301780044</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="D44" t="n">
-        <v>215.3927273605244</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="E44" t="n">
-        <v>215.3927273605244</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="F44" t="n">
-        <v>215.3927273605244</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="G44" t="n">
-        <v>27.34082230314441</v>
+        <v>328.7268917037146</v>
       </c>
       <c r="H44" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I44" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J44" t="n">
-        <v>95.1944749267152</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K44" t="n">
-        <v>229.8695478244278</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L44" t="n">
-        <v>420.9320297462636</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M44" t="n">
-        <v>654.1109890220051</v>
+        <v>654.1109890220057</v>
       </c>
       <c r="N44" t="n">
-        <v>894.062003086166</v>
+        <v>894.0620030861667</v>
       </c>
       <c r="O44" t="n">
-        <v>1111.973021646432</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P44" t="n">
         <v>1275.529383879705</v>
       </c>
       <c r="Q44" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R44" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S44" t="n">
-        <v>1251.029935812964</v>
+        <v>1251.029935812965</v>
       </c>
       <c r="T44" t="n">
-        <v>1251.029935812964</v>
+        <v>1037.230886842094</v>
       </c>
       <c r="U44" t="n">
-        <v>1251.029935812964</v>
+        <v>781.6554557981267</v>
       </c>
       <c r="V44" t="n">
-        <v>1251.029935812964</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="W44" t="n">
-        <v>905.8175329954844</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="X44" t="n">
-        <v>905.8175329954844</v>
+        <v>439.5486465016451</v>
       </c>
       <c r="Y44" t="n">
-        <v>905.8175329954844</v>
+        <v>439.5486465016451</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>373.5583206755004</v>
+        <v>545.7428835784413</v>
       </c>
       <c r="C45" t="n">
-        <v>373.5583206755004</v>
+        <v>545.7428835784413</v>
       </c>
       <c r="D45" t="n">
-        <v>373.5583206755004</v>
+        <v>415.6539161999216</v>
       </c>
       <c r="E45" t="n">
-        <v>237.1118297863881</v>
+        <v>279.2074253108094</v>
       </c>
       <c r="F45" t="n">
-        <v>112.6800236695199</v>
+        <v>154.7756191939412</v>
       </c>
       <c r="G45" t="n">
-        <v>112.6800236695199</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H45" t="n">
-        <v>35.90158966711749</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I45" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J45" t="n">
         <v>250.2573874193691</v>
       </c>
       <c r="K45" t="n">
-        <v>404.3562692829145</v>
+        <v>349.2248155482936</v>
       </c>
       <c r="L45" t="n">
-        <v>567.5398414923139</v>
+        <v>512.408387757693</v>
       </c>
       <c r="M45" t="n">
-        <v>770.549337700803</v>
+        <v>721.8326298956573</v>
       </c>
       <c r="N45" t="n">
-        <v>988.2975103955574</v>
+        <v>939.5808025904118</v>
       </c>
       <c r="O45" t="n">
-        <v>1173.051680973571</v>
+        <v>1124.334973168425</v>
       </c>
       <c r="P45" t="n">
-        <v>1308.766698019695</v>
+        <v>1260.04999021455</v>
       </c>
       <c r="Q45" t="n">
-        <v>1367.041115157221</v>
+        <v>1318.324407352075</v>
       </c>
       <c r="R45" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S45" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T45" t="n">
-        <v>1194.836862745628</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U45" t="n">
-        <v>1194.836862745628</v>
+        <v>1157.055984230687</v>
       </c>
       <c r="V45" t="n">
-        <v>972.2968611166946</v>
+        <v>1066.160512593884</v>
       </c>
       <c r="W45" t="n">
-        <v>742.1796152499815</v>
+        <v>1066.160512593884</v>
       </c>
       <c r="X45" t="n">
-        <v>552.8725375999932</v>
+        <v>876.8534349438953</v>
       </c>
       <c r="Y45" t="n">
-        <v>373.5583206755004</v>
+        <v>697.5392180194026</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.8121804725776</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="C46" t="n">
-        <v>432.8121804725776</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="D46" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="E46" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="F46" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="G46" t="n">
-        <v>277.1790673750924</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="H46" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="I46" t="n">
-        <v>27.34082230314441</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="J46" t="n">
-        <v>66.45306417582705</v>
+        <v>27.34082230314443</v>
       </c>
       <c r="K46" t="n">
-        <v>261.4889387084428</v>
+        <v>57.52162409307883</v>
       </c>
       <c r="L46" t="n">
-        <v>570.4746716803967</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M46" t="n">
-        <v>908.8173476818088</v>
+        <v>704.8500330664451</v>
       </c>
       <c r="N46" t="n">
-        <v>1080.700664119239</v>
+        <v>952.393192572745</v>
       </c>
       <c r="O46" t="n">
-        <v>1129.322704634535</v>
+        <v>1252.816782623509</v>
       </c>
       <c r="P46" t="n">
-        <v>1367.041115157221</v>
+        <v>1282.03105676399</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.041115157221</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R46" t="n">
-        <v>1287.839608093953</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S46" t="n">
-        <v>1287.839608093953</v>
+        <v>1265.314379089195</v>
       </c>
       <c r="T46" t="n">
-        <v>1287.839608093953</v>
+        <v>1033.842952951516</v>
       </c>
       <c r="U46" t="n">
-        <v>1002.455041344714</v>
+        <v>1033.842952951516</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.455041344714</v>
+        <v>767.8636077723404</v>
       </c>
       <c r="W46" t="n">
-        <v>719.1246392758922</v>
+        <v>484.533205703518</v>
       </c>
       <c r="X46" t="n">
-        <v>485.0443170588752</v>
+        <v>250.4528834865011</v>
       </c>
       <c r="Y46" t="n">
-        <v>432.8121804725776</v>
+        <v>27.34082230314443</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>204.6744029851388</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>47.7159492515767</v>
+        <v>6.479541342903858</v>
       </c>
       <c r="R12" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>238.5447489504991</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>230.7496286384614</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.06626921754312</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>47.7159492515765</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>48.04165200586218</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>155.1399044680794</v>
       </c>
       <c r="P15" t="n">
-        <v>204.6744029851388</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.96522144053665</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>43.11562283756375</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
         <v>277.7867367707678</v>
@@ -9099,10 +9099,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>48.58273621285008</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>16.06626921754312</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>241.7931796691795</v>
       </c>
       <c r="L18" t="n">
-        <v>176.9283876686997</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.25316880524167</v>
+        <v>10.59717256753595</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288652</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.564285996021454</v>
       </c>
       <c r="M19" t="n">
         <v>277.7867367707678</v>
@@ -9336,13 +9336,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>47.69827108689813</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.06626921754312</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>241.7931796691795</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>10.59717256753601</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>203.1815564739417</v>
       </c>
       <c r="R21" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>47.6982710868982</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>277.7867367707678</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>29.89048836196444</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754312</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>296.9726900454926</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>322.4392500619318</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>187.9903396983909</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>2.30740002227023</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>359.7539145626104</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>166.5713125793044</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>149.3958625112161</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>187.9903396983906</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>288.2005546779731</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>2.30740002227023</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>359.7539145626104</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>166.5713125793044</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>149.3958625112161</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>38.6850079706127</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>322.4392500619318</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7018717830373</v>
       </c>
       <c r="P29" t="n">
-        <v>296.9726900454926</v>
+        <v>399.6055650426274</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.30740002227023</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7785845734958</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>329.2797094441734</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>399.6055650426273</v>
       </c>
       <c r="Q32" t="n">
-        <v>190.6333555339284</v>
+        <v>54.10717030947612</v>
       </c>
       <c r="R32" t="n">
-        <v>2.30740002227023</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>198.60465827399</v>
+        <v>427.728135938736</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>49.38829544040402</v>
       </c>
       <c r="R33" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>203.1815564739416</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>203.1815564739419</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.96522144053665</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>44.00008796351565</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>277.7867367707678</v>
+        <v>277.786736770768</v>
       </c>
       <c r="N37" t="n">
-        <v>268.0356382773604</v>
+        <v>62.27337495943411</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.06626921754312</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>121.8126296026846</v>
+        <v>6.47954134290427</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>130.5777226340309</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>277.7867367707678</v>
+        <v>277.786736770768</v>
       </c>
       <c r="N40" t="n">
-        <v>230.7496286384614</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.2653272026435936</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.9283876686997</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>75.46196456801579</v>
+        <v>155.1399044680796</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>48.0416520058624</v>
       </c>
       <c r="R42" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.96522144053665</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>277.786736770768</v>
       </c>
       <c r="N43" t="n">
-        <v>168.9571879832091</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0.2653272026435936</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.06626921754312</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.30740002227023</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>55.68833710567777</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6.479541342904213</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.80500914288652</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>277.7867367707678</v>
+        <v>277.786736770768</v>
       </c>
       <c r="N46" t="n">
-        <v>106.0081357203062</v>
+        <v>182.4322196282548</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.06626921754312</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.72951946497773</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>81.95196288405134</v>
+        <v>47.48346769279345</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,13 +23269,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601677</v>
       </c>
       <c r="G11" t="n">
         <v>406.8370587541321</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>164.5677154994007</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U11" t="n">
         <v>253.0196767335278</v>
@@ -23320,7 +23320,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589209018</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>99.98331969632878</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1812122068327</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>89.1038676934421</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.8591230322018</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23503,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>335.3067600531998</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601682</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482693</v>
       </c>
       <c r="H14" t="n">
         <v>298.3722087065644</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>63.19205353798702</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>43.79780022696855</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.76552319929971</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>15.40832732518905</v>
       </c>
       <c r="C15" t="n">
-        <v>109.0791507623954</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>117.6852892315554</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T15" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>16.49428025292386</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23664,13 +23664,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>154.6962522553802</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I16" t="n">
         <v>102.1663867729557</v>
@@ -23703,10 +23703,10 @@
         <v>78.40949199263524</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.530721081746</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497773</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>111.7030405277021</v>
       </c>
       <c r="G17" t="n">
-        <v>406.8370587541321</v>
+        <v>65.07677996482693</v>
       </c>
       <c r="H17" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>211.6610584811623</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>25.52876589209023</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.05510158906151</v>
+        <v>50.76552319929971</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.475159690333349</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>89.48966013341187</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>46.47908566429373</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>98.09985259671215</v>
       </c>
       <c r="D19" t="n">
-        <v>71.8451391757889</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.72951946497773</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>47.48346769279351</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23986,7 +23986,7 @@
         <v>406.8370587541321</v>
       </c>
       <c r="H20" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>52.36689279964237</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U20" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>137.7295885918485</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.0898693263588</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>84.79948335582068</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.20902173305939</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.6362815515982</v>
+        <v>144.0280765482914</v>
       </c>
       <c r="T22" t="n">
-        <v>104.5596664207901</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>31.64936183768799</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H23" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>52.36689279964237</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>159.0933770968972</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>34.06905557116322</v>
+        <v>21.77174920277142</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.1734758482728</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>154.5919792493716</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>64.84574578981534</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I26" t="n">
         <v>52.36689279964237</v>
@@ -24505,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>159.1648986566017</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.40949199263524</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.100817150144081</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>260.9039993655374</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I29" t="n">
-        <v>52.36689279964237</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>119.203145956051</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>78.40949199263524</v>
       </c>
       <c r="S31" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>199.269920594254</v>
+        <v>118.1687905906176</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>26.4386021962369</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>57.86055566685275</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>105.0225243831291</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,13 +25089,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>186.288659918582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497756</v>
       </c>
       <c r="C35" t="n">
-        <v>47.48346769279345</v>
+        <v>47.48346769279334</v>
       </c>
       <c r="D35" t="n">
-        <v>80.56426393787905</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>56.79741084531565</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25171,10 +25171,10 @@
         <v>406.8370587541321</v>
       </c>
       <c r="H35" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.36689279964237</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.6610584811623</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>155.9986229267265</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.76552319929965</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H36" t="n">
-        <v>28.92802670478311</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I36" t="n">
-        <v>8.475159690333349</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T36" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>149.3596703443665</v>
       </c>
     </row>
     <row r="37">
@@ -25317,16 +25317,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6941698397379</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.40949199263524</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S37" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.1471397296935</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>39.8264387061937</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>70.96521529601677</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>406.8370587541321</v>
       </c>
       <c r="H38" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.36689279964237</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0196767335278</v>
+        <v>20.38568305819189</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589209001</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>76.25519567365552</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,19 +25523,19 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4822098874773</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>168.1385108251967</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>137.4752196039254</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>145.1734758482728</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.40949199263524</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U40" t="n">
-        <v>47.10311804625789</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>54.71965858662031</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25636,10 +25636,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>209.3117660420259</v>
       </c>
       <c r="F41" t="n">
-        <v>111.7030405277021</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>406.8370587541321</v>
@@ -25648,7 +25648,7 @@
         <v>298.3722087065644</v>
       </c>
       <c r="I41" t="n">
-        <v>52.36689279964237</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.6610584811623</v>
@@ -25687,16 +25687,16 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>25.52876589209023</v>
+        <v>25.52876589209001</v>
       </c>
       <c r="X41" t="n">
-        <v>43.79780022696855</v>
+        <v>43.79780022696832</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.76552319929971</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.393193623704235</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>77.03368369887951</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I43" t="n">
         <v>102.1663867729557</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S43" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1567118763024</v>
+        <v>78.12370563568018</v>
       </c>
       <c r="U43" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>147.8232151121971</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>47.48346769279351</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>39.82643870619376</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>288.8441523846697</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>220.6656727473259</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H44" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.36689279964237</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>25.52876589209023</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06609520858859241</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,16 +25997,16 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>130.3280846922087</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26040,10 +26040,10 @@
         <v>165.5873294507275</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S46" t="n">
-        <v>183.6362815515982</v>
+        <v>82.9268128442521</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.1711253510884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366909.8636144435</v>
+        <v>366909.8636144436</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>366909.8636144436</v>
+        <v>366909.8636144435</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>532394.0952090978</v>
+        <v>532394.095209098</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>532394.0952090976</v>
+        <v>532394.0952090981</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>532394.095209098</v>
+        <v>532394.0952090978</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>532394.095209098</v>
+        <v>532394.0952090978</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366909.8636144436</v>
+        <v>366909.8636144437</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366909.8636144436</v>
+        <v>366909.8636144437</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366909.8636144436</v>
+        <v>366909.8636144437</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366909.8636144436</v>
+        <v>366909.8636144437</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070945</v>
+        <v>575677.5082070946</v>
       </c>
       <c r="C2" t="n">
         <v>575677.5082070945</v>
       </c>
       <c r="D2" t="n">
-        <v>575677.5082070944</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="E2" t="n">
-        <v>294398.8102415784</v>
+        <v>294398.8102415785</v>
       </c>
       <c r="F2" t="n">
         <v>294398.8102415785</v>
       </c>
       <c r="G2" t="n">
-        <v>294398.8102415785</v>
+        <v>294398.8102415787</v>
       </c>
       <c r="H2" t="n">
         <v>294398.8102415785</v>
       </c>
       <c r="I2" t="n">
-        <v>388348.0869450183</v>
+        <v>388348.086945018</v>
       </c>
       <c r="J2" t="n">
-        <v>388348.0869450183</v>
+        <v>388348.0869450179</v>
       </c>
       <c r="K2" t="n">
-        <v>388348.0869450183</v>
+        <v>388348.0869450181</v>
       </c>
       <c r="L2" t="n">
         <v>388348.0869450182</v>
       </c>
       <c r="M2" t="n">
-        <v>294398.8102415784</v>
+        <v>294398.8102415786</v>
       </c>
       <c r="N2" t="n">
-        <v>294398.8102415785</v>
+        <v>294398.8102415786</v>
       </c>
       <c r="O2" t="n">
-        <v>294398.8102415785</v>
+        <v>294398.8102415786</v>
       </c>
       <c r="P2" t="n">
-        <v>294398.8102415784</v>
+        <v>294398.8102415787</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>17607.63439613957</v>
       </c>
       <c r="F4" t="n">
-        <v>17607.63439613955</v>
+        <v>17607.63439613956</v>
       </c>
       <c r="G4" t="n">
         <v>17607.63439613956</v>
       </c>
       <c r="H4" t="n">
-        <v>17607.63439613956</v>
+        <v>17607.63439613957</v>
       </c>
       <c r="I4" t="n">
         <v>71706.8314571575</v>
@@ -26447,19 +26447,19 @@
         <v>71706.8314571575</v>
       </c>
       <c r="L4" t="n">
-        <v>71706.83145715749</v>
+        <v>71706.83145715747</v>
       </c>
       <c r="M4" t="n">
         <v>17607.63439613957</v>
       </c>
       <c r="N4" t="n">
-        <v>17607.63439613957</v>
+        <v>17607.63439613958</v>
       </c>
       <c r="O4" t="n">
-        <v>17607.63439613956</v>
+        <v>17607.63439613958</v>
       </c>
       <c r="P4" t="n">
-        <v>17607.63439613956</v>
+        <v>17607.63439613958</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32676.91371957391</v>
+        <v>32676.91371957392</v>
       </c>
       <c r="F5" t="n">
         <v>32676.91371957391</v>
@@ -26505,13 +26505,13 @@
         <v>32676.91371957392</v>
       </c>
       <c r="N5" t="n">
-        <v>32676.91371957392</v>
+        <v>32676.91371957393</v>
       </c>
       <c r="O5" t="n">
-        <v>32676.91371957391</v>
+        <v>32676.91371957393</v>
       </c>
       <c r="P5" t="n">
-        <v>32676.91371957391</v>
+        <v>32676.91371957393</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149477.940981402</v>
+        <v>149473.6114136157</v>
       </c>
       <c r="C6" t="n">
-        <v>149477.940981402</v>
+        <v>149473.6114136156</v>
       </c>
       <c r="D6" t="n">
-        <v>149477.9409814019</v>
+        <v>149473.6114136156</v>
       </c>
       <c r="E6" t="n">
-        <v>-296404.8810930597</v>
+        <v>-297288.2065919883</v>
       </c>
       <c r="F6" t="n">
-        <v>244114.2621258651</v>
+        <v>243230.9366269364</v>
       </c>
       <c r="G6" t="n">
-        <v>244114.2621258651</v>
+        <v>243230.9366269365</v>
       </c>
       <c r="H6" t="n">
-        <v>244114.2621258651</v>
+        <v>243230.9366269364</v>
       </c>
       <c r="I6" t="n">
-        <v>211088.0030839546</v>
+        <v>210498.2690747239</v>
       </c>
       <c r="J6" t="n">
-        <v>270402.6748047082</v>
+        <v>269812.9407954774</v>
       </c>
       <c r="K6" t="n">
-        <v>270402.6748047082</v>
+        <v>269812.9407954777</v>
       </c>
       <c r="L6" t="n">
-        <v>270402.6748047081</v>
+        <v>269812.9407954778</v>
       </c>
       <c r="M6" t="n">
-        <v>214532.116077423</v>
+        <v>213648.7905784945</v>
       </c>
       <c r="N6" t="n">
-        <v>244114.262125865</v>
+        <v>243230.9366269365</v>
       </c>
       <c r="O6" t="n">
-        <v>244114.2621258651</v>
+        <v>243230.9366269364</v>
       </c>
       <c r="P6" t="n">
-        <v>244114.2621258649</v>
+        <v>243230.9366269365</v>
       </c>
     </row>
   </sheetData>
@@ -26767,19 +26767,19 @@
         <v>545.7747141827595</v>
       </c>
       <c r="L3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="M3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="N3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="O3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="P3" t="n">
-        <v>545.7747141827595</v>
+        <v>545.7747141827596</v>
       </c>
     </row>
     <row r="4">
@@ -26822,16 +26822,16 @@
         <v>564.8140117429024</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="O4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="P4" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893051</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893051</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -33417,22 +33417,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I32" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J32" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K32" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L32" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M32" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N32" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O32" t="n">
         <v>369.6759773839615</v>
@@ -33447,10 +33447,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S32" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T32" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U32" t="n">
         <v>0.1755255362195808</v>
@@ -33496,13 +33496,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I33" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J33" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K33" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L33" t="n">
         <v>254.8922379775237</v>
@@ -33511,10 +33511,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O33" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P33" t="n">
         <v>224.169240623481</v>
@@ -33523,16 +33523,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R33" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S33" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T33" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H34" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I34" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J34" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K34" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L34" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M34" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N34" t="n">
         <v>150.6069797350557</v>
@@ -33599,19 +33599,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R34" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S34" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T34" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,22 +33654,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J35" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K35" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L35" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M35" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N35" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O35" t="n">
         <v>369.6759773839615</v>
@@ -33684,10 +33684,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S35" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T35" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U35" t="n">
         <v>0.1755255362195808</v>
@@ -33733,13 +33733,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I36" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J36" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K36" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L36" t="n">
         <v>254.8922379775237</v>
@@ -33748,10 +33748,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O36" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P36" t="n">
         <v>224.169240623481</v>
@@ -33760,16 +33760,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R36" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S36" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T36" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H37" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I37" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J37" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K37" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L37" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M37" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N37" t="n">
         <v>150.6069797350557</v>
@@ -33836,19 +33836,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R37" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S37" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T37" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,22 +33891,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J38" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K38" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L38" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M38" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N38" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O38" t="n">
         <v>369.6759773839615</v>
@@ -33921,10 +33921,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S38" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T38" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U38" t="n">
         <v>0.1755255362195808</v>
@@ -33970,13 +33970,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I39" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J39" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K39" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L39" t="n">
         <v>254.8922379775237</v>
@@ -33985,10 +33985,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O39" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P39" t="n">
         <v>224.169240623481</v>
@@ -33997,16 +33997,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R39" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S39" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T39" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H40" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I40" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J40" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K40" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L40" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M40" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N40" t="n">
         <v>150.6069797350557</v>
@@ -34073,19 +34073,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R40" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S40" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T40" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,22 +34128,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J41" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K41" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L41" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M41" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N41" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O41" t="n">
         <v>369.6759773839615</v>
@@ -34158,10 +34158,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S41" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T41" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U41" t="n">
         <v>0.1755255362195808</v>
@@ -34207,13 +34207,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I42" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J42" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K42" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L42" t="n">
         <v>254.8922379775237</v>
@@ -34222,10 +34222,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N42" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O42" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P42" t="n">
         <v>224.169240623481</v>
@@ -34234,16 +34234,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R42" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S42" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T42" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H43" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I43" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J43" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K43" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L43" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M43" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N43" t="n">
         <v>150.6069797350557</v>
@@ -34310,19 +34310,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R43" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S43" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T43" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,22 +34365,22 @@
         <v>22.47001122260978</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58685293881744</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J44" t="n">
-        <v>186.2188809964582</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K44" t="n">
         <v>279.093830348644</v>
       </c>
       <c r="L44" t="n">
-        <v>346.240575712144</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M44" t="n">
-        <v>385.2593538964561</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N44" t="n">
-        <v>391.4932530187547</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O44" t="n">
         <v>369.6759773839615</v>
@@ -34395,10 +34395,10 @@
         <v>137.8231995569157</v>
       </c>
       <c r="S44" t="n">
-        <v>49.99735195754626</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T44" t="n">
-        <v>9.604537935015191</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U44" t="n">
         <v>0.1755255362195808</v>
@@ -34444,13 +34444,13 @@
         <v>11.33769736443808</v>
       </c>
       <c r="I45" t="n">
-        <v>40.41822175787417</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J45" t="n">
-        <v>110.9106897944417</v>
+        <v>110.9106897944418</v>
       </c>
       <c r="K45" t="n">
-        <v>189.564034453459</v>
+        <v>189.5640344534591</v>
       </c>
       <c r="L45" t="n">
         <v>254.8922379775237</v>
@@ -34459,10 +34459,10 @@
         <v>297.4472192296039</v>
       </c>
       <c r="N45" t="n">
-        <v>305.3197620407873</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O45" t="n">
-        <v>279.3079332101146</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P45" t="n">
         <v>224.169240623481</v>
@@ -34471,16 +34471,16 @@
         <v>149.8512007695758</v>
       </c>
       <c r="R45" t="n">
-        <v>72.88666843369006</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S45" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T45" t="n">
-        <v>4.731763795603356</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07723227087491882</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9841839108213694</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H46" t="n">
-        <v>8.750289679848182</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I46" t="n">
-        <v>29.59709433633719</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J46" t="n">
-        <v>69.58180249507082</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K46" t="n">
         <v>114.3442761845191</v>
       </c>
       <c r="L46" t="n">
-        <v>146.3213061597516</v>
+        <v>146.3213061597517</v>
       </c>
       <c r="M46" t="n">
-        <v>154.2753015844806</v>
+        <v>154.2753015844807</v>
       </c>
       <c r="N46" t="n">
         <v>150.6069797350557</v>
@@ -34547,19 +34547,19 @@
         <v>119.0325704506136</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.41198184159667</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R46" t="n">
-        <v>44.25248748111356</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S46" t="n">
         <v>17.15164142767786</v>
       </c>
       <c r="T46" t="n">
-        <v>4.20514943714585</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05368275877207476</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>28.46623246110839</v>
+        <v>225.1682475921461</v>
       </c>
       <c r="K12" t="n">
         <v>99.96709912012567</v>
@@ -35506,13 +35506,13 @@
         <v>186.6203743212258</v>
       </c>
       <c r="P12" t="n">
-        <v>341.7602787893052</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.5789968652385</v>
+        <v>65.34258895656563</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>39.50731502291175</v>
       </c>
       <c r="K13" t="n">
-        <v>30.48565837367109</v>
+        <v>197.005933871329</v>
       </c>
       <c r="L13" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M13" t="n">
-        <v>302.5182909690365</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N13" t="n">
-        <v>335.6470141100144</v>
+        <v>298.3610044711155</v>
       </c>
       <c r="O13" t="n">
-        <v>303.4581717684484</v>
+        <v>49.1131722376718</v>
       </c>
       <c r="P13" t="n">
         <v>29.50936781866764</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>85.86874585174915</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.18218171268489</v>
+        <v>28.46623246110839</v>
       </c>
       <c r="K15" t="n">
         <v>99.96709912012567</v>
@@ -35734,22 +35734,22 @@
         <v>164.8318911206055</v>
       </c>
       <c r="M15" t="n">
-        <v>205.060097180292</v>
+        <v>253.1017491861541</v>
       </c>
       <c r="N15" t="n">
         <v>219.9476491866206</v>
       </c>
       <c r="O15" t="n">
-        <v>186.6203743212258</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="P15" t="n">
-        <v>341.7602787893052</v>
+        <v>137.0858758041663</v>
       </c>
       <c r="Q15" t="n">
         <v>58.86304761366178</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.50731502291175</v>
       </c>
       <c r="K16" t="n">
-        <v>30.48565837367109</v>
+        <v>197.005933871329</v>
       </c>
       <c r="L16" t="n">
-        <v>101.7618894145105</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M16" t="n">
         <v>341.7602787893052</v>
@@ -35819,10 +35819,10 @@
         <v>335.6470141100144</v>
       </c>
       <c r="O16" t="n">
-        <v>303.4581717684484</v>
+        <v>97.69590845052188</v>
       </c>
       <c r="P16" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866764</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>28.46623246110839</v>
       </c>
       <c r="K18" t="n">
-        <v>99.96709912012567</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="L18" t="n">
-        <v>341.7602787893052</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M18" t="n">
         <v>205.060097180292</v>
@@ -35983,10 +35983,10 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.11621641890345</v>
+        <v>69.46022018119773</v>
       </c>
       <c r="R18" t="n">
-        <v>49.20879576277396</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>197.005933871329</v>
       </c>
       <c r="L19" t="n">
-        <v>58.64626657694674</v>
+        <v>64.2105525729682</v>
       </c>
       <c r="M19" t="n">
         <v>341.7602787893052</v>
@@ -36056,13 +36056,13 @@
         <v>335.6470141100144</v>
       </c>
       <c r="O19" t="n">
-        <v>303.4581717684484</v>
+        <v>49.1131722376718</v>
       </c>
       <c r="P19" t="n">
-        <v>77.20763890556577</v>
+        <v>240.1196065885717</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>85.86874585174915</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.43609219951087</v>
+        <v>92.43609219951119</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>28.46623246110839</v>
       </c>
       <c r="K21" t="n">
-        <v>341.7602787893052</v>
+        <v>99.96709912012567</v>
       </c>
       <c r="L21" t="n">
         <v>164.8318911206055</v>
@@ -36211,7 +36211,7 @@
         <v>205.060097180292</v>
       </c>
       <c r="N21" t="n">
-        <v>230.5448217541566</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O21" t="n">
         <v>186.6203743212258</v>
@@ -36220,10 +36220,10 @@
         <v>137.0858758041663</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.86304761366178</v>
+        <v>262.0446040876034</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>197.005933871329</v>
       </c>
       <c r="L22" t="n">
-        <v>312.1068009817716</v>
+        <v>106.3445376638449</v>
       </c>
       <c r="M22" t="n">
-        <v>63.97354201853737</v>
+        <v>341.7602787893052</v>
       </c>
       <c r="N22" t="n">
         <v>335.6470141100144</v>
       </c>
       <c r="O22" t="n">
-        <v>79.00366059963625</v>
+        <v>303.4581717684484</v>
       </c>
       <c r="P22" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866764</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>136.0354271694066</v>
       </c>
       <c r="L23" t="n">
-        <v>489.9650960271449</v>
+        <v>192.9924059816523</v>
       </c>
       <c r="M23" t="n">
         <v>235.5343022987288</v>
       </c>
       <c r="N23" t="n">
-        <v>564.8140117429024</v>
+        <v>242.3747616809706</v>
       </c>
       <c r="O23" t="n">
         <v>220.1121399598651</v>
       </c>
       <c r="P23" t="n">
-        <v>165.208446700275</v>
+        <v>353.1987863986658</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.43609219951119</v>
+        <v>423.6474776289625</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>164.8318911206055</v>
       </c>
       <c r="M24" t="n">
-        <v>564.8140117429024</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N24" t="n">
-        <v>386.518961765925</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O24" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P24" t="n">
-        <v>137.0858758041663</v>
+        <v>286.4817383153824</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.86304761366178</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>136.0354271694066</v>
       </c>
       <c r="L26" t="n">
-        <v>192.9924059816523</v>
+        <v>380.9827456800429</v>
       </c>
       <c r="M26" t="n">
         <v>235.5343022987288</v>
@@ -36609,7 +36609,7 @@
         <v>242.3747616809706</v>
       </c>
       <c r="O26" t="n">
-        <v>508.3126946378382</v>
+        <v>220.1121399598651</v>
       </c>
       <c r="P26" t="n">
         <v>165.208446700275</v>
@@ -36618,7 +36618,7 @@
         <v>423.6474776289625</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>164.8318911206055</v>
       </c>
       <c r="M27" t="n">
-        <v>564.8140117429024</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N27" t="n">
-        <v>386.518961765925</v>
+        <v>219.9476491866206</v>
       </c>
       <c r="O27" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P27" t="n">
-        <v>137.0858758041663</v>
+        <v>286.4817383153824</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.86304761366178</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.20879576277396</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>332.3297627225472</v>
+        <v>68.53904305411214</v>
       </c>
       <c r="K29" t="n">
         <v>136.0354271694066</v>
       </c>
       <c r="L29" t="n">
-        <v>192.9924059816523</v>
+        <v>231.677413952265</v>
       </c>
       <c r="M29" t="n">
         <v>235.5343022987288</v>
       </c>
       <c r="N29" t="n">
+        <v>242.3747616809706</v>
+      </c>
+      <c r="O29" t="n">
         <v>564.8140117429024</v>
       </c>
-      <c r="O29" t="n">
-        <v>220.1121399598651</v>
-      </c>
       <c r="P29" t="n">
-        <v>462.1811367457676</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q29" t="n">
         <v>92.43609219951119</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>332.3297627225472</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K32" t="n">
+        <v>136.0354271694067</v>
+      </c>
+      <c r="L32" t="n">
+        <v>192.9924059816524</v>
+      </c>
+      <c r="M32" t="n">
         <v>564.8140117429024</v>
       </c>
-      <c r="L32" t="n">
-        <v>192.9924059816523</v>
-      </c>
-      <c r="M32" t="n">
-        <v>235.5343022987288</v>
-      </c>
       <c r="N32" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O32" t="n">
         <v>220.1121399598651</v>
       </c>
       <c r="P32" t="n">
-        <v>165.208446700275</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q32" t="n">
-        <v>283.0694477334396</v>
+        <v>146.5432625089874</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>225.1682475921461</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K33" t="n">
-        <v>512.5328688597483</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L33" t="n">
         <v>164.8318911206055</v>
@@ -37159,19 +37159,19 @@
         <v>205.060097180292</v>
       </c>
       <c r="N33" t="n">
-        <v>219.9476491866206</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O33" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P33" t="n">
-        <v>335.6905340781563</v>
+        <v>564.8140117429024</v>
       </c>
       <c r="Q33" t="n">
-        <v>386.5836164815864</v>
+        <v>108.2513430540659</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39.50731502291175</v>
+        <v>39.50731502291176</v>
       </c>
       <c r="K34" t="n">
-        <v>197.005933871329</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L34" t="n">
         <v>312.1068009817716</v>
@@ -37238,16 +37238,16 @@
         <v>342.4486130372726</v>
       </c>
       <c r="N34" t="n">
-        <v>335.6470141100144</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O34" t="n">
-        <v>303.4581717684484</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P34" t="n">
-        <v>240.1196065885717</v>
+        <v>240.1196065885718</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86874585174915</v>
+        <v>85.86874585174918</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K35" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L35" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M35" t="n">
-        <v>235.5343022987288</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N35" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O35" t="n">
         <v>220.1121399598651</v>
@@ -37326,7 +37326,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951111</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.46623246110839</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K36" t="n">
-        <v>303.1486555940673</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L36" t="n">
         <v>164.8318911206055</v>
@@ -37396,19 +37396,19 @@
         <v>205.060097180292</v>
       </c>
       <c r="N36" t="n">
-        <v>219.9476491866206</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O36" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P36" t="n">
-        <v>137.0858758041663</v>
+        <v>340.2674322781082</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.86304761366178</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R36" t="n">
-        <v>49.20879576277396</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>39.50731502291176</v>
       </c>
       <c r="K37" t="n">
-        <v>74.48574633718674</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L37" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M37" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="N37" t="n">
-        <v>335.6470141100144</v>
+        <v>129.8847507920882</v>
       </c>
       <c r="O37" t="n">
-        <v>49.1131722376718</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P37" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866767</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K38" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L38" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M38" t="n">
-        <v>235.5343022987288</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N38" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O38" t="n">
         <v>220.1121399598651</v>
@@ -37563,7 +37563,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.46623246110839</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K39" t="n">
-        <v>99.96709912012567</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L39" t="n">
         <v>164.8318911206055</v>
@@ -37633,19 +37633,19 @@
         <v>205.060097180292</v>
       </c>
       <c r="N39" t="n">
-        <v>341.7602787893052</v>
+        <v>226.427190529525</v>
       </c>
       <c r="O39" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P39" t="n">
-        <v>267.6635984381973</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.86304761366178</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>39.50731502291175</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>197.005933871329</v>
+        <v>30.48565837367111</v>
       </c>
       <c r="L40" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="N40" t="n">
-        <v>298.3610044711155</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O40" t="n">
-        <v>49.1131722376718</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P40" t="n">
-        <v>29.50936781866764</v>
+        <v>29.77469502131126</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.86874585174915</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K41" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L41" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M41" t="n">
-        <v>235.5343022987288</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N41" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O41" t="n">
         <v>220.1121399598651</v>
@@ -37800,7 +37800,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.46623246110839</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K42" t="n">
-        <v>99.96709912012567</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L42" t="n">
-        <v>341.7602787893052</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M42" t="n">
         <v>205.060097180292</v>
       </c>
       <c r="N42" t="n">
-        <v>219.9476491866206</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O42" t="n">
-        <v>262.0823388892416</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="P42" t="n">
-        <v>137.0858758041663</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.86304761366178</v>
+        <v>106.9046996195242</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>197.005933871329</v>
+        <v>30.48565837367111</v>
       </c>
       <c r="L43" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M43" t="n">
-        <v>63.97354201853737</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="N43" t="n">
-        <v>236.5685638158631</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O43" t="n">
-        <v>303.4581717684484</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P43" t="n">
-        <v>240.1196065885717</v>
+        <v>29.77469502131126</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>68.53904305411214</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K44" t="n">
-        <v>136.0354271694066</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L44" t="n">
-        <v>192.9924059816523</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M44" t="n">
-        <v>235.5343022987288</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N44" t="n">
-        <v>242.3747616809706</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O44" t="n">
         <v>220.1121399598651</v>
@@ -38037,7 +38037,7 @@
         <v>165.208446700275</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.43609219951119</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>225.1682475921461</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K45" t="n">
-        <v>155.6554362258034</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L45" t="n">
         <v>164.8318911206055</v>
       </c>
       <c r="M45" t="n">
-        <v>205.060097180292</v>
+        <v>211.5396385231962</v>
       </c>
       <c r="N45" t="n">
-        <v>219.9476491866206</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O45" t="n">
         <v>186.6203743212258</v>
       </c>
       <c r="P45" t="n">
-        <v>137.0858758041663</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.86304761366178</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.50731502291175</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>197.005933871329</v>
+        <v>30.48565837367111</v>
       </c>
       <c r="L46" t="n">
         <v>312.1068009817716</v>
       </c>
       <c r="M46" t="n">
-        <v>341.7602787893052</v>
+        <v>341.7602787893054</v>
       </c>
       <c r="N46" t="n">
-        <v>173.6195115529603</v>
+        <v>250.0435954609089</v>
       </c>
       <c r="O46" t="n">
-        <v>49.1131722376718</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P46" t="n">
-        <v>240.1196065885717</v>
+        <v>29.50936781866767</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>85.86874585174918</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
